--- a/toc/TOC-RPS.xlsx
+++ b/toc/TOC-RPS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/srinivasreddy/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\trainings\icici-training-2025\toc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6D7CC7EA-2CB6-9947-824E-10204558FA53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76461C0D-B58F-45C9-ACEE-7206E3DCB437}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17540" firstSheet="1" activeTab="1" xr2:uid="{8ACC8ED8-12D0-4FA4-B1FC-56591DEE96AB}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="1" xr2:uid="{8ACC8ED8-12D0-4FA4-B1FC-56591DEE96AB}"/>
   </bookViews>
   <sheets>
     <sheet name="Training Schedule" sheetId="10" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="93">
   <si>
     <t>Day Order</t>
   </si>
@@ -153,9 +153,6 @@
     <t xml:space="preserve">      REST Controllers, Request Mappings, DTO handling</t>
   </si>
   <si>
-    <t xml:space="preserve">      Exception handling, validation, and Spring Boot Actuator</t>
-  </si>
-  <si>
     <t>Day-5</t>
   </si>
   <si>
@@ -310,6 +307,12 @@
   </si>
   <si>
     <t>Table of contents- Daily Schedule</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Exception handling, validation</t>
+  </si>
+  <si>
+    <t>, and Spring Boot Actuator</t>
   </si>
 </sst>
 </file>
@@ -391,7 +394,7 @@
       <name val="Mulish"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -401,6 +404,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -434,7 +443,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -463,6 +472,8 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink 2" xfId="2" xr:uid="{092E6344-68EB-43FA-ADB1-89684A5EA98B}"/>
@@ -805,12 +816,12 @@
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <cols>
     <col min="2" max="2" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="40.6640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="51.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="51.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1227,40 +1238,40 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25EF8C76-B8FA-7346-8DE7-5DA492EF0FEB}">
   <dimension ref="A2:B85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="127.83203125" customWidth="1"/>
+    <col min="2" max="2" width="127.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" ht="19">
+    <row r="2" spans="1:2" ht="18">
       <c r="B2" s="11" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="16">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15.6">
       <c r="B5" s="12" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="B6" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="14" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="14" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1284,16 +1295,19 @@
         <v>35</v>
       </c>
     </row>
+    <row r="13" spans="1:2">
+      <c r="B13" s="15"/>
+    </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="14" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="14" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1304,44 +1318,47 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>53</v>
-      </c>
-      <c r="B19" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B19" s="14" t="s">
         <v>16</v>
       </c>
     </row>
+    <row r="20" spans="1:2">
+      <c r="B20" s="15"/>
+    </row>
     <row r="21" spans="1:2">
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="14" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>52</v>
-      </c>
-      <c r="B22" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B22" s="14" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>40</v>
-      </c>
-      <c r="B23" s="7" t="s">
         <v>39</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="B24" s="7"/>
     </row>
-    <row r="25" spans="1:2" ht="16">
+    <row r="25" spans="1:2" ht="15.6">
       <c r="B25" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B26" s="7" t="s">
         <v>17</v>
@@ -1349,71 +1366,76 @@
     </row>
     <row r="27" spans="1:2">
       <c r="B27" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="B28" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="B29" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="B30" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="B32" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="B33" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="B34" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="B35" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="B36" s="7" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="37" spans="1:2">
-      <c r="B37" s="7" t="s">
+      <c r="B37" s="14" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
+        <v>55</v>
+      </c>
+      <c r="B38" s="14" t="s">
         <v>56</v>
-      </c>
-      <c r="B38" s="7" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>59</v>
-      </c>
-      <c r="B39" s="7" t="s">
         <v>58</v>
+      </c>
+      <c r="B39" s="14" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -1423,7 +1445,7 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B42" s="7" t="s">
         <v>20</v>
@@ -1432,9 +1454,9 @@
     <row r="43" spans="1:2">
       <c r="B43" s="7"/>
     </row>
-    <row r="44" spans="1:2" ht="16">
+    <row r="44" spans="1:2" ht="15.6">
       <c r="B44" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -1444,7 +1466,7 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B47" s="7" t="s">
         <v>22</v>
@@ -1457,7 +1479,7 @@
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B49" s="7" t="s">
         <v>24</v>
@@ -1475,39 +1497,39 @@
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>65</v>
-      </c>
-      <c r="B54" s="7" t="s">
         <v>64</v>
+      </c>
+      <c r="B54" s="14" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" t="s">
-        <v>69</v>
-      </c>
-      <c r="B55" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
+      </c>
+      <c r="B55" s="14" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" t="s">
+        <v>66</v>
+      </c>
+      <c r="B56" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="B56" s="7" t="s">
-        <v>68</v>
-      </c>
     </row>
     <row r="57" spans="1:2">
-      <c r="B57" s="7" t="s">
-        <v>70</v>
+      <c r="B57" s="14" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="B59" s="7"/>
     </row>
-    <row r="60" spans="1:2" ht="16">
+    <row r="60" spans="1:2" ht="15.6">
       <c r="B60" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -1517,23 +1539,23 @@
     </row>
     <row r="63" spans="1:2">
       <c r="A63" t="s">
+        <v>71</v>
+      </c>
+      <c r="B63" s="14" t="s">
         <v>72</v>
-      </c>
-      <c r="B63" s="7" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" t="s">
-        <v>76</v>
-      </c>
-      <c r="B64" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="B64" s="14" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="B65" s="14" t="s">
         <v>74</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
-      <c r="B65" s="7" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -1543,25 +1565,25 @@
     </row>
     <row r="69" spans="1:2">
       <c r="A69" t="s">
-        <v>81</v>
-      </c>
-      <c r="B69" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="B69" s="14" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="B70" s="14" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="70" spans="1:2">
-      <c r="B70" s="7" t="s">
+    <row r="71" spans="1:2">
+      <c r="B71" s="14" t="s">
         <v>78</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
-      <c r="B71" s="7" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="B72" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -1571,25 +1593,25 @@
     </row>
     <row r="76" spans="1:2">
       <c r="A76" t="s">
+        <v>81</v>
+      </c>
+      <c r="B76" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="B76" s="7" t="s">
+    </row>
+    <row r="77" spans="1:2">
+      <c r="B77" s="14" t="s">
         <v>83</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
-      <c r="B77" s="7" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="B78" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="B79" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -1599,20 +1621,20 @@
     </row>
     <row r="83" spans="1:2">
       <c r="A83" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B83" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="B84" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="B85" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -1621,6 +1643,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="0a2ccfb7-4253-4103-bb4d-66c5ddba3bad" xsi:nil="true"/>
@@ -1629,15 +1660,6 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1875,20 +1897,20 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{25CFDB89-41DC-4829-9A3E-E0E3FE725AB2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E54F52F6-1C76-4BFC-BDF7-7513BDDDD15A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="0a2ccfb7-4253-4103-bb4d-66c5ddba3bad"/>
     <ds:schemaRef ds:uri="52ef429a-33cb-47a2-9df9-548aca62905c"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{25CFDB89-41DC-4829-9A3E-E0E3FE725AB2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/toc/TOC-RPS.xlsx
+++ b/toc/TOC-RPS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\trainings\icici-training-2025\toc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76461C0D-B58F-45C9-ACEE-7206E3DCB437}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E91B0DE5-E5E2-4D82-AB24-976E3F65B0B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="1" xr2:uid="{8ACC8ED8-12D0-4FA4-B1FC-56591DEE96AB}"/>
   </bookViews>
@@ -394,7 +394,7 @@
       <name val="Mulish"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -410,6 +410,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -443,7 +449,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -474,6 +480,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink 2" xfId="2" xr:uid="{092E6344-68EB-43FA-ADB1-89684A5EA98B}"/>
@@ -1238,8 +1245,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25EF8C76-B8FA-7346-8DE7-5DA492EF0FEB}">
   <dimension ref="A2:B85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B85" sqref="B85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4"/>
@@ -1360,27 +1367,27 @@
       <c r="A26" t="s">
         <v>53</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="B26" s="14" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="14" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="B28" s="7" t="s">
+      <c r="B28" s="14" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="B29" s="7" t="s">
+      <c r="B29" s="14" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="B30" s="7" t="s">
+      <c r="B30" s="14" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1388,17 +1395,17 @@
       <c r="A31" t="s">
         <v>54</v>
       </c>
-      <c r="B31" s="7" t="s">
+      <c r="B31" s="14" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="B32" s="7" t="s">
+      <c r="B32" s="16" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="33" spans="1:2">
-      <c r="B33" s="7" t="s">
+      <c r="B33" s="14" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1468,12 +1475,12 @@
       <c r="A47" t="s">
         <v>60</v>
       </c>
-      <c r="B47" s="7" t="s">
+      <c r="B47" s="14" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="48" spans="1:2">
-      <c r="B48" s="7" t="s">
+      <c r="B48" s="14" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1481,12 +1488,12 @@
       <c r="A49" t="s">
         <v>62</v>
       </c>
-      <c r="B49" s="7" t="s">
+      <c r="B49" s="14" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="50" spans="1:2">
-      <c r="B50" s="7" t="s">
+      <c r="B50" s="14" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1643,15 +1650,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="0a2ccfb7-4253-4103-bb4d-66c5ddba3bad" xsi:nil="true"/>
@@ -1660,6 +1658,15 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1897,20 +1904,20 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{25CFDB89-41DC-4829-9A3E-E0E3FE725AB2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E54F52F6-1C76-4BFC-BDF7-7513BDDDD15A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="0a2ccfb7-4253-4103-bb4d-66c5ddba3bad"/>
     <ds:schemaRef ds:uri="52ef429a-33cb-47a2-9df9-548aca62905c"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{25CFDB89-41DC-4829-9A3E-E0E3FE725AB2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
